--- a/Data/Raw data/modena_final_2008_2018.xlsx
+++ b/Data/Raw data/modena_final_2008_2018.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tl0\Documents\R\modena_carbapenem_resistance\Data\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8895DA2-7054-4BAD-A969-CF0D1214F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C610ADC-43C2-459F-8126-724314289912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modena_final_2008_2018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,9 +40,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>OBDs</t>
   </si>
   <si>
     <t>phase</t>
@@ -771,11 +779,14 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t>obds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1613,11 +1624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IM133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AF1:AK1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1633,736 +1644,736 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EV1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FA1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="ID1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IE1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IF1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IG1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IH1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="II1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IJ1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IK1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IL1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IM1" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="IM1" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:247" x14ac:dyDescent="0.35">
@@ -2382,28 +2393,28 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K2">
         <v>92.6</v>
       </c>
       <c r="L2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3125,28 +3136,28 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K3">
         <v>92.3</v>
       </c>
       <c r="L3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3868,28 +3879,28 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K4">
         <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -4611,28 +4622,28 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K5">
         <v>87.9</v>
       </c>
       <c r="L5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -5354,28 +5365,28 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K6">
         <v>84.6</v>
       </c>
       <c r="L6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6097,28 +6108,28 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K7">
         <v>84.8</v>
       </c>
       <c r="L7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -6840,28 +6851,28 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K8">
         <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7583,28 +7594,28 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K9">
         <v>86.9</v>
       </c>
       <c r="L9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -8326,28 +8337,28 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10">
         <v>82.2</v>
       </c>
       <c r="L10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N10">
         <v>26</v>
@@ -9069,28 +9080,28 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K11">
         <v>86.1</v>
       </c>
       <c r="L11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N11">
         <v>31</v>
@@ -9812,28 +9823,28 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K12">
         <v>88.9</v>
       </c>
       <c r="L12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N12">
         <v>75</v>
@@ -10555,28 +10566,28 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K13">
         <v>85.4</v>
       </c>
       <c r="L13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N13">
         <v>69</v>
@@ -11298,28 +11309,28 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K14">
         <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N14">
         <v>60</v>
@@ -12041,28 +12052,28 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K15">
         <v>89.5</v>
       </c>
       <c r="L15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N15">
         <v>81</v>
@@ -12784,28 +12795,28 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K16">
         <v>89.4</v>
       </c>
       <c r="L16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N16">
         <v>65</v>
@@ -13527,28 +13538,28 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K17">
         <v>88.2</v>
       </c>
       <c r="L17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N17">
         <v>107</v>
@@ -14270,28 +14281,28 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K18">
         <v>87.2</v>
       </c>
       <c r="L18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N18">
         <v>92</v>
@@ -15013,28 +15024,28 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K19">
         <v>88.8</v>
       </c>
       <c r="L19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N19">
         <v>92</v>
@@ -15756,28 +15767,28 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K20">
         <v>87.2</v>
       </c>
       <c r="L20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N20">
         <v>160</v>
@@ -16499,28 +16510,28 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21">
         <v>84.3</v>
       </c>
       <c r="L21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N21">
         <v>130</v>
@@ -17242,28 +17253,28 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22">
         <v>83.1</v>
       </c>
       <c r="L22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N22">
         <v>175</v>
@@ -17985,28 +17996,28 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K23">
         <v>88</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N23">
         <v>196</v>
@@ -18728,28 +18739,28 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K24">
         <v>87.9</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N24">
         <v>225</v>
@@ -19471,28 +19482,28 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K25">
         <v>87.3</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N25">
         <v>259</v>
@@ -20214,28 +20225,28 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K26">
         <v>88.3</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N26">
         <v>205</v>
@@ -20957,28 +20968,28 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K27">
         <v>89.3</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N27">
         <v>153</v>
@@ -21700,28 +21711,28 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K28">
         <v>84.5</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N28">
         <v>159</v>
@@ -22443,28 +22454,28 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K29">
         <v>83</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N29">
         <v>184</v>
@@ -23186,28 +23197,28 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K30">
         <v>83</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N30">
         <v>163</v>
@@ -23929,28 +23940,28 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K31">
         <v>82.5</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N31">
         <v>188</v>
@@ -24672,28 +24683,28 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K32">
         <v>83.7</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N32">
         <v>210</v>
@@ -25415,28 +25426,28 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K33">
         <v>80</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N33">
         <v>152</v>
@@ -26158,28 +26169,28 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K34">
         <v>81.2</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N34">
         <v>217</v>
@@ -26901,28 +26912,28 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K35">
         <v>85.3</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N35">
         <v>233</v>
@@ -27644,28 +27655,28 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36">
         <v>88.7</v>
       </c>
       <c r="L36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N36">
         <v>186</v>
@@ -28387,28 +28398,28 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K37">
         <v>87.2</v>
       </c>
       <c r="L37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N37">
         <v>202</v>
@@ -29130,28 +29141,28 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K38">
         <v>86.3</v>
       </c>
       <c r="L38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N38">
         <v>169</v>
@@ -29873,28 +29884,28 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K39">
         <v>88.3</v>
       </c>
       <c r="L39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N39">
         <v>215</v>
@@ -30616,28 +30627,28 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K40">
         <v>85.5</v>
       </c>
       <c r="L40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N40">
         <v>197</v>
@@ -31359,28 +31370,28 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K41">
         <v>84</v>
       </c>
       <c r="L41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N41">
         <v>163</v>
@@ -32102,28 +32113,28 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K42">
         <v>83</v>
       </c>
       <c r="L42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42">
         <v>229</v>
@@ -32845,28 +32856,28 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K43">
         <v>83.5</v>
       </c>
       <c r="L43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N43">
         <v>223</v>
@@ -33588,28 +33599,28 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K44">
         <v>84.7</v>
       </c>
       <c r="L44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N44">
         <v>149</v>
@@ -34331,28 +34342,28 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K45">
         <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N45">
         <v>151</v>
@@ -35074,28 +35085,28 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K46">
         <v>86.2</v>
       </c>
       <c r="L46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N46">
         <v>216</v>
@@ -35817,28 +35828,28 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K47">
         <v>88.3</v>
       </c>
       <c r="L47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N47">
         <v>206</v>
@@ -36560,25 +36571,25 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K48">
         <v>89.7</v>
       </c>
       <c r="L48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M48">
         <v>3.33</v>
@@ -37303,25 +37314,25 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K49">
         <v>90.2</v>
       </c>
       <c r="L49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M49">
         <v>3.33</v>
@@ -38046,25 +38057,25 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K50">
         <v>98.3</v>
       </c>
       <c r="L50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M50">
         <v>3.33</v>
@@ -38789,25 +38800,25 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K51">
         <v>96.7</v>
       </c>
       <c r="L51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M51">
         <v>3.33</v>
@@ -39532,25 +39543,25 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K52">
         <v>95.6</v>
       </c>
       <c r="L52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M52">
         <v>3.33</v>
@@ -40275,25 +40286,25 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K53">
         <v>91.6</v>
       </c>
       <c r="L53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M53">
         <v>3.33</v>
@@ -41018,25 +41029,25 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K54">
         <v>90.8</v>
       </c>
       <c r="L54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M54">
         <v>3.33</v>
@@ -41761,25 +41772,25 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K55">
         <v>86.5</v>
       </c>
       <c r="L55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M55">
         <v>3.33</v>
@@ -42504,25 +42515,25 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K56">
         <v>93.9</v>
       </c>
       <c r="L56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M56">
         <v>3.33</v>
@@ -43247,25 +43258,25 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K57">
         <v>85.1</v>
       </c>
       <c r="L57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M57">
         <v>3.33</v>
@@ -43990,25 +44001,25 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K58">
         <v>94.4</v>
       </c>
       <c r="L58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M58">
         <v>3.33</v>
@@ -44733,25 +44744,25 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K59">
         <v>93.1</v>
       </c>
       <c r="L59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M59">
         <v>3.33</v>
@@ -45473,19 +45484,19 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K60">
         <v>96.5</v>
@@ -46216,19 +46227,19 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K61">
         <v>86.6</v>
@@ -46959,19 +46970,19 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K62">
         <v>91</v>
@@ -47702,19 +47713,19 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K63">
         <v>91.5</v>
@@ -48445,19 +48456,19 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K64">
         <v>89</v>
@@ -49188,19 +49199,19 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K65">
         <v>88.1</v>
@@ -49931,19 +49942,19 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K66">
         <v>88.4</v>
@@ -50674,19 +50685,19 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K67">
         <v>85.5</v>
@@ -51417,19 +51428,19 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K68">
         <v>89.9</v>
@@ -52160,19 +52171,19 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K69">
         <v>89.1</v>
@@ -52903,19 +52914,19 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K70">
         <v>84.3</v>
@@ -53646,19 +53657,19 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K71">
         <v>89.2</v>
@@ -54389,19 +54400,19 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K72">
         <v>87.6</v>
@@ -55132,19 +55143,19 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K73">
         <v>89.4</v>
@@ -55875,19 +55886,19 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K74">
         <v>90.6</v>
@@ -56618,19 +56629,19 @@
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K75">
         <v>93.3</v>
@@ -57361,19 +57372,19 @@
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K76">
         <v>92</v>
@@ -58104,19 +58115,19 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K77">
         <v>85.9</v>
@@ -58847,19 +58858,19 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K78">
         <v>86.6</v>
@@ -59590,19 +59601,19 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K79">
         <v>87.8</v>
@@ -60333,19 +60344,19 @@
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K80">
         <v>91</v>
@@ -61076,19 +61087,19 @@
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K81">
         <v>86.9</v>
@@ -61819,19 +61830,19 @@
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K82">
         <v>82.2</v>
@@ -62562,19 +62573,19 @@
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K83">
         <v>87.1</v>
@@ -63305,19 +63316,19 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K84">
         <v>89.9</v>
@@ -64048,19 +64059,19 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K85">
         <v>85.4</v>
@@ -64791,19 +64802,19 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K86">
         <v>91</v>
@@ -65534,19 +65545,19 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K87">
         <v>90.5</v>
@@ -66277,19 +66288,19 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K88">
         <v>89.4</v>
@@ -67020,19 +67031,19 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K89">
         <v>88.2</v>
@@ -67763,19 +67774,19 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K90">
         <v>88.2</v>
@@ -68506,19 +68517,19 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K91">
         <v>89.8</v>
@@ -69249,19 +69260,19 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K92">
         <v>87.2</v>
@@ -69992,19 +70003,19 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K93">
         <v>83.3</v>
@@ -70735,19 +70746,19 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K94">
         <v>83.1</v>
@@ -71478,19 +71489,19 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K95">
         <v>87</v>
@@ -72221,19 +72232,19 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K96">
         <v>86.9</v>
@@ -72964,19 +72975,19 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K97">
         <v>87.3</v>
@@ -73707,19 +73718,19 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K98">
         <v>86.3</v>
@@ -74450,19 +74461,19 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K99">
         <v>88.3</v>
@@ -75193,19 +75204,19 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K100">
         <v>84.5</v>
@@ -75936,19 +75947,19 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K101">
         <v>82</v>
@@ -76679,19 +76690,19 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K102">
         <v>83</v>
@@ -77422,19 +77433,19 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J103" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K103">
         <v>82.5</v>
@@ -78165,19 +78176,19 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K104">
         <v>84.7</v>
@@ -78908,19 +78919,19 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K105">
         <v>80</v>
@@ -79651,19 +79662,19 @@
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K106">
         <v>80.2</v>
@@ -80394,19 +80405,19 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K107">
         <v>85.3</v>
@@ -81137,19 +81148,19 @@
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K108">
         <v>87.7</v>
@@ -81880,19 +81891,19 @@
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K109">
         <v>87.2</v>
@@ -82623,19 +82634,19 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K110">
         <v>88.4</v>
@@ -83366,19 +83377,19 @@
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K111">
         <v>89.9</v>
@@ -84109,19 +84120,19 @@
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K112">
         <v>85.9</v>
@@ -84852,19 +84863,19 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K113">
         <v>83.4</v>
@@ -85595,19 +85606,19 @@
         <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K114">
         <v>86.6</v>
@@ -86338,19 +86349,19 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K115">
         <v>83.9</v>
@@ -87081,19 +87092,19 @@
         <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K116">
         <v>84.3</v>
@@ -87824,19 +87835,19 @@
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K117">
         <v>87.4</v>
@@ -88567,19 +88578,19 @@
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K118">
         <v>82.6</v>
@@ -89310,19 +89321,19 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K119">
         <v>85.5</v>
@@ -90053,19 +90064,19 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K120">
         <v>86.1</v>
@@ -90796,19 +90807,19 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K121">
         <v>87.2</v>
@@ -91539,19 +91550,19 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K122">
         <v>94.7</v>
@@ -92282,19 +92293,19 @@
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K123">
         <v>89.2</v>
@@ -93025,19 +93036,19 @@
         <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K124">
         <v>89.1</v>
@@ -93768,19 +93779,19 @@
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K125">
         <v>87.2</v>
@@ -94511,19 +94522,19 @@
         <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K126">
         <v>87.3</v>
@@ -95254,19 +95265,19 @@
         <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K127">
         <v>87.3</v>
@@ -95997,19 +96008,19 @@
         <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K128">
         <v>85</v>
@@ -96740,19 +96751,19 @@
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K129">
         <v>87.4</v>
@@ -97483,19 +97494,19 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K130">
         <v>84.3</v>
@@ -98226,19 +98237,19 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K131">
         <v>87.7</v>
@@ -98969,19 +98980,19 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K132">
         <v>88.3</v>
@@ -99712,19 +99723,19 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K133">
         <v>86.4</v>

--- a/Data/Raw data/modena_final_2008_2018.xlsx
+++ b/Data/Raw data/modena_final_2008_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tl0\Documents\R\modena_carbapenem_resistance\Data\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C610ADC-43C2-459F-8126-724314289912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2FD10-AECC-4E8D-8A69-B5C5FDF34FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IM133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BU60" sqref="BU60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44944,6 +44944,9 @@
       <c r="BT59">
         <v>6</v>
       </c>
+      <c r="BU59">
+        <v>16</v>
+      </c>
       <c r="BV59">
         <v>0</v>
       </c>

--- a/Data/Raw data/modena_final_2008_2018.xlsx
+++ b/Data/Raw data/modena_final_2008_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tl0\Documents\R\modena_carbapenem_resistance\Data\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F97511-2F03-4B27-841C-E73881488BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9E4C7-0922-4E0B-A848-CB7DE4C3818C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="GA95" sqref="GA95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -74313,7 +74313,7 @@
         <v>52</v>
       </c>
       <c r="AM94">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AN94">
         <v>32</v>
@@ -74331,7 +74331,7 @@
         <v>48</v>
       </c>
       <c r="AS94">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AT94">
         <v>29</v>
@@ -74751,7 +74751,7 @@
         <v>32</v>
       </c>
       <c r="GA94">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="GB94">
         <v>24</v>
